--- a/LuBan/Config/Datas/__beans__.xlsx
+++ b/LuBan/Config/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19575" windowHeight="9810"/>
+    <workbookView windowWidth="19860" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1131,8 +1131,8 @@
   <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
